--- a/data/random_lines_ext/bs_auto5.xlsx
+++ b/data/random_lines_ext/bs_auto5.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5724296675191816</v>
+        <v>0.2769080459770115</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>352.597701516624</v>
+        <v>347215042.5873563</v>
       </c>
     </row>
   </sheetData>
